--- a/lookup_pys/dhw_lookup.xlsx
+++ b/lookup_pys/dhw_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\lookup_pys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F280C-FF85-4B54-BE5C-393102D693DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A71C5B4-7F81-4A7B-B4BE-9126BF6467D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24960" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,66 +25,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
-  <si>
-    <t>range_min</t>
-  </si>
-  <si>
-    <t>range_max</t>
-  </si>
-  <si>
-    <t>TABLE_13_1_KWH_PER_M2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+  <si>
+    <t>calibration_stage</t>
+  </si>
+  <si>
+    <t>dhw_key</t>
+  </si>
+  <si>
+    <t>occupant_density_m2_per_person_min</t>
+  </si>
+  <si>
+    <t>occupant_density_m2_per_person_max</t>
+  </si>
+  <si>
+    <t>liters_per_person_per_day_min</t>
+  </si>
+  <si>
+    <t>liters_per_person_per_day_max</t>
+  </si>
+  <si>
+    <t>default_tank_volume_liters_min</t>
+  </si>
+  <si>
+    <t>default_tank_volume_liters_max</t>
+  </si>
+  <si>
+    <t>default_heater_capacity_w_min</t>
+  </si>
+  <si>
+    <t>default_heater_capacity_w_max</t>
+  </si>
+  <si>
+    <t>setpoint_c_min</t>
+  </si>
+  <si>
+    <t>setpoint_c_max</t>
+  </si>
+  <si>
+    <t>usage_split_factor_min</t>
+  </si>
+  <si>
+    <t>usage_split_factor_max</t>
+  </si>
+  <si>
+    <t>peak_hours_min</t>
+  </si>
+  <si>
+    <t>peak_hours_max</t>
+  </si>
+  <si>
+    <t>sched_morning_min</t>
+  </si>
+  <si>
+    <t>sched_morning_max</t>
+  </si>
+  <si>
+    <t>sched_peak_min</t>
+  </si>
+  <si>
+    <t>sched_peak_max</t>
+  </si>
+  <si>
+    <t>sched_afternoon_min</t>
+  </si>
+  <si>
+    <t>sched_afternoon_max</t>
+  </si>
+  <si>
+    <t>sched_evening_min</t>
+  </si>
+  <si>
+    <t>sched_evening_max</t>
+  </si>
+  <si>
+    <t>pre_calibration</t>
+  </si>
+  <si>
+    <t>Corner House</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Terrace or Semi-detached House</t>
+  </si>
+  <si>
+    <t>Detached House</t>
+  </si>
+  <si>
+    <t>Two-and-a-half-story House</t>
   </si>
   <si>
     <t>Meeting Function</t>
   </si>
   <si>
+    <t>Healthcare Function</t>
+  </si>
+  <si>
+    <t>Sport Function</t>
+  </si>
+  <si>
+    <t>Cell Function</t>
+  </si>
+  <si>
+    <t>Retail Function</t>
+  </si>
+  <si>
+    <t>Industrial Function</t>
+  </si>
+  <si>
+    <t>Accommodation Function</t>
+  </si>
+  <si>
     <t>Office Function</t>
   </si>
   <si>
-    <t>Healthcare Function</t>
-  </si>
-  <si>
-    <t>pre_calibration</t>
-  </si>
-  <si>
-    <t>Residential_SingleFamily_Small</t>
-  </si>
-  <si>
-    <t>occupant_density_m2_per_person_range</t>
-  </si>
-  <si>
-    <t>liters_per_person_per_day_range</t>
-  </si>
-  <si>
-    <t>default_tank_volume_liters_range</t>
-  </si>
-  <si>
-    <t>default_heater_capacity_w_range</t>
-  </si>
-  <si>
-    <t>setpoint_c_range</t>
-  </si>
-  <si>
-    <t>section_type</t>
-  </si>
-  <si>
-    <t>key_name</t>
-  </si>
-  <si>
-    <t>subkey_name</t>
-  </si>
-  <si>
-    <t>single_value</t>
-  </si>
-  <si>
-    <t>Retail Function</t>
-  </si>
-  <si>
     <t>Education Function</t>
   </si>
   <si>
-    <t>usage_split_factor_range</t>
+    <t>Other Use Function</t>
+  </si>
+  <si>
+    <t>post_calibration</t>
   </si>
 </sst>
 </file>
@@ -416,213 +479,2275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="7" width="13.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>45</v>
+      </c>
       <c r="F2" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2">
+        <v>180</v>
+      </c>
+      <c r="H2" s="2">
+        <v>220</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3500</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4500</v>
+      </c>
+      <c r="K2" s="2">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45</v>
+      </c>
       <c r="F3" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2">
+        <v>900</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>18000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>22000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>45</v>
+      </c>
       <c r="F4" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2">
+        <v>180</v>
+      </c>
+      <c r="H4" s="2">
+        <v>250</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>55</v>
+      </c>
       <c r="F5" s="2">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2">
+        <v>250</v>
+      </c>
+      <c r="H5" s="2">
+        <v>350</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
       <c r="F6" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2">
+        <v>220</v>
+      </c>
+      <c r="H6" s="2">
+        <v>320</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>400</v>
+      </c>
+      <c r="H7" s="2">
+        <v>600</v>
+      </c>
+      <c r="I7" s="2">
+        <v>13000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>17000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>58</v>
+      </c>
+      <c r="L7" s="2">
+        <v>60</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2800</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3200</v>
+      </c>
+      <c r="I9" s="2">
+        <v>38000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>42000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>58</v>
+      </c>
+      <c r="L9" s="2">
+        <v>60</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>58</v>
+      </c>
+      <c r="L10" s="2">
+        <v>60</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>250</v>
+      </c>
+      <c r="H11" s="2">
+        <v>350</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>58</v>
+      </c>
+      <c r="L11" s="2">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>58</v>
+      </c>
+      <c r="L12" s="2">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2200</v>
+      </c>
+      <c r="I13" s="2">
+        <v>28000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>32000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>58</v>
+      </c>
+      <c r="L13" s="2">
+        <v>60</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>250</v>
+      </c>
+      <c r="H14" s="2">
+        <v>350</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>58</v>
+      </c>
+      <c r="L14" s="2">
+        <v>62</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>400</v>
+      </c>
+      <c r="H15" s="2">
+        <v>600</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>58</v>
+      </c>
+      <c r="L15" s="2">
+        <v>60</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>300</v>
+      </c>
+      <c r="H16" s="2">
+        <v>600</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>58</v>
+      </c>
+      <c r="L16" s="2">
+        <v>60</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>200</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>60</v>
+      </c>
+      <c r="L17" s="2">
+        <v>60</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>20000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>60</v>
+      </c>
+      <c r="L18" s="2">
+        <v>60</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
+        <v>200</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>60</v>
+      </c>
+      <c r="L19" s="2">
+        <v>60</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O19" s="2">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2">
+        <v>60</v>
+      </c>
+      <c r="G20" s="2">
+        <v>300</v>
+      </c>
+      <c r="H20" s="2">
+        <v>300</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>60</v>
+      </c>
+      <c r="L20" s="2">
+        <v>60</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
         <v>55</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="F21" s="2">
+        <v>55</v>
+      </c>
+      <c r="G21" s="2">
+        <v>250</v>
+      </c>
+      <c r="H21" s="2">
+        <v>250</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4500</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4500</v>
+      </c>
+      <c r="K21" s="2">
+        <v>60</v>
+      </c>
+      <c r="L21" s="2">
+        <v>60</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>500</v>
+      </c>
+      <c r="H22" s="2">
+        <v>500</v>
+      </c>
+      <c r="I22" s="2">
+        <v>15000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>60</v>
+      </c>
+      <c r="L22" s="2">
+        <v>60</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>65</v>
+      </c>
+      <c r="L23" s="2">
+        <v>65</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3</v>
+      </c>
+      <c r="P23" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <v>180</v>
-      </c>
-      <c r="E9" s="2">
-        <v>220</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3500</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4500</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>60</v>
+      </c>
+      <c r="L24" s="2">
+        <v>60</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2">
+        <v>35</v>
+      </c>
+      <c r="F25" s="2">
+        <v>35</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>30000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>60</v>
+      </c>
+      <c r="L25" s="2">
+        <v>60</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W25" s="2">
         <v>0.5</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="X25" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>300</v>
+      </c>
+      <c r="H26" s="2">
+        <v>300</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>60</v>
+      </c>
+      <c r="L26" s="2">
+        <v>60</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>20000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>60</v>
+      </c>
+      <c r="L27" s="2">
+        <v>60</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2">
+        <v>60</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>30000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>60</v>
+      </c>
+      <c r="L28" s="2">
+        <v>60</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>300</v>
+      </c>
+      <c r="H29" s="2">
+        <v>300</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J29" s="2">
+        <v>8000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>60</v>
+      </c>
+      <c r="L29" s="2">
+        <v>60</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P29" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>500</v>
+      </c>
+      <c r="H30" s="2">
+        <v>500</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="2">
+        <v>60</v>
+      </c>
+      <c r="L30" s="2">
+        <v>60</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
+        <v>400</v>
+      </c>
+      <c r="H31" s="2">
+        <v>400</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K31" s="2">
+        <v>60</v>
+      </c>
+      <c r="L31" s="2">
+        <v>60</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
